--- a/dataset/Planilha.xlsx
+++ b/dataset/Planilha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Empresas\gennesis\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub\gennesisengenharia\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6C493-88A8-43CE-A455-347585B3C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5FFA63-9CB3-4A94-8405-70270A46F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3300" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3300" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensao" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,10 @@
     <t>Gennesis Engenharia e Consultoria Ltda</t>
   </si>
   <si>
-    <t>Objetivo: Executar o Porgrama de Gerecnaiementos dos Resíduos Sólidos da Construção Civil</t>
-  </si>
-  <si>
     <t>Documento</t>
+  </si>
+  <si>
+    <t>Objetivo: Executar o Programa de Gerenciamento dos Resíduos Sólidos da Construção Civil</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>21</v>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90C6FE9-6A2A-4633-8825-D6BC91B75434}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -706,7 +706,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
